--- a/Doc/GPIO.xlsx
+++ b/Doc/GPIO.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="19080" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="Connection" sheetId="1" r:id="rId1"/>
-    <sheet name="Wiring" sheetId="2" r:id="rId2"/>
-    <sheet name="Romeo" sheetId="3" r:id="rId3"/>
+    <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
+    <sheet name="Romeo" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>3.3v</t>
   </si>
@@ -51,9 +51,6 @@
     <t>SCLK</t>
   </si>
   <si>
-    <t>SDA.0</t>
-  </si>
-  <si>
     <t>GPIO.21</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>CE1</t>
   </si>
   <si>
-    <t>SCL.0</t>
-  </si>
-  <si>
     <t>GPIO.26</t>
   </si>
   <si>
@@ -123,21 +117,12 @@
     <t>Gnd</t>
   </si>
   <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>Sig</t>
   </si>
   <si>
     <t>gnd</t>
   </si>
   <si>
-    <t>Left encoded Wheel</t>
-  </si>
-  <si>
-    <t>Left encoded Left</t>
-  </si>
-  <si>
     <t>Front Sonar</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>PowerShield</t>
-  </si>
-  <si>
     <t>Power Shield</t>
   </si>
   <si>
@@ -165,15 +147,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>Front Sonnar</t>
-  </si>
-  <si>
-    <t>Left Sonnar</t>
-  </si>
-  <si>
-    <t>Right Sonnar</t>
-  </si>
-  <si>
     <t>Left Sonar</t>
   </si>
   <si>
@@ -192,38 +165,134 @@
     <t>SDA</t>
   </si>
   <si>
-    <t>SLC</t>
-  </si>
-  <si>
-    <t>Left Sound Sensor</t>
-  </si>
-  <si>
     <t>Left Sound sensor</t>
   </si>
   <si>
     <t>Right Sound sensor</t>
   </si>
   <si>
-    <t>Right Sound Sensor</t>
-  </si>
-  <si>
     <t>Left Light sensor</t>
   </si>
   <si>
     <t>Right Light sensor</t>
   </si>
   <si>
-    <t>Left Light Sensor</t>
-  </si>
-  <si>
-    <t>Right Light Sensor</t>
+    <t>DFRobot V1.2 Digital</t>
+  </si>
+  <si>
+    <t>Raspberry</t>
+  </si>
+  <si>
+    <t>Aref</t>
+  </si>
+  <si>
+    <t>Servo motor horizontal</t>
+  </si>
+  <si>
+    <t>Servo motor vertical</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>IR Reciever</t>
+  </si>
+  <si>
+    <t>DFRobot V1.2 Analogic</t>
+  </si>
+  <si>
+    <t>Left  Motor</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>M1+</t>
+  </si>
+  <si>
+    <t>M1-</t>
+  </si>
+  <si>
+    <t>M2+</t>
+  </si>
+  <si>
+    <t>M2-</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>For/backward</t>
+  </si>
+  <si>
+    <t>Right  Motor</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>IR Rsender</t>
+  </si>
+  <si>
+    <t>SD EPR</t>
+  </si>
+  <si>
+    <t>SC EPR</t>
+  </si>
+  <si>
+    <t>Numéro du port GPIO</t>
+  </si>
+  <si>
+    <t>Numéro physique du port</t>
+  </si>
+  <si>
+    <t>Numéro du port dans la librairie wiringPi, connecté à un composant</t>
+  </si>
+  <si>
+    <t>Numéro du port dans la librairie wiringPi, libre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +331,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +387,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -368,13 +469,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,26 +614,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -503,6 +766,185 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14968</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4980215" y="5674179"/>
+          <a:ext cx="4423682" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="il_fi" descr="Afficher l'image d'origine"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11944350" y="2286000"/>
+          <a:ext cx="5410200" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886951" y="962025"/>
+          <a:ext cx="5514974" cy="4860255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -797,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T54"/>
+  <dimension ref="A2:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,28 +1251,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="A2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -862,18 +1304,16 @@
       <c r="M3" s="6">
         <v>11</v>
       </c>
-      <c r="N3" s="6">
-        <v>31</v>
-      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="7">
         <v>26</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>27</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>28</v>
       </c>
       <c r="T3" s="6">
@@ -882,64 +1322,64 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -1142,25 +1582,25 @@
         <v>10</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>4</v>
@@ -1198,9 +1638,7 @@
         <v>14</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="6">
-        <v>30</v>
-      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="7">
         <v>21</v>
       </c>
@@ -1219,14 +1657,14 @@
       <c r="T8" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1237,26 +1675,26 @@
       <c r="C11" s="7">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1266,14 +1704,14 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1286,41 +1724,41 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,40 +1771,40 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,21 +1814,21 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,13 +1837,13 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,45 +1853,45 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +1909,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,15 +1926,15 @@
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -1509,167 +1947,115 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="7">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7">
-        <v>8</v>
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>57</v>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A41" s="18">
+        <v>26</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="7">
+        <v>9</v>
+      </c>
+      <c r="E45" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>28</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A52:C52"/>
+  <mergeCells count="11">
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A18:D18"/>
@@ -1682,410 +2068,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="15">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+      <c r="C2" s="16">
+        <f t="shared" ref="C2:M2" si="0">B2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D2" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E2" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F2" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G2" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H2" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I2" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="J2" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="K2" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L2" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="M2" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="N2" s="16">
+        <f t="shared" ref="N2" si="1">M2+1</f>
+        <v>13</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
+      <c r="I19" s="7">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="K19" s="2"/>
+      <c r="L19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
+      <c r="I20" s="4">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4">
         <v>14</v>
       </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="K20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="7">
+        <v>17</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="H30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G24:I24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29">
+        <v>4</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>16</v>
       </c>
-      <c r="B1">
-        <f>A1-1</f>
+      <c r="B3" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>15</v>
       </c>
-      <c r="C1">
-        <f t="shared" ref="C1:X1" si="0">B1-1</f>
-        <v>14</v>
-      </c>
-      <c r="D1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
+      <c r="B4" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N1">
-        <f t="shared" si="0"/>
+      <c r="B5" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
+      <c r="B6" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<SyracuseOfficeCustomData>{"createMode":"plain_doc","forceRefresh":"0"}</SyracuseOfficeCustomData>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{472731C8-043B-4376-ACB4-C5528CFAB38D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>